--- a/Assets/Refactoring/06_Data/Excel/EnhancementData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/EnhancementData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D774DA7-2D60-4404-8224-543F8D58CB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC0C2CE-9689-434D-89B4-91106013AE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34080" yWindow="1440" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="2730" yWindow="7545" windowWidth="21810" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -551,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>

--- a/Assets/Refactoring/06_Data/Excel/EnhancementData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/EnhancementData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC0C2CE-9689-434D-89B4-91106013AE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31827FAD-F628-4D28-8179-2911EF8BCCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="7545" windowWidth="21810" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="24330" yWindow="6900" windowWidth="26130" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
